--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371812.1145704105</v>
+        <v>366512.7084587871</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.14243387</v>
+        <v>6742609.142433866</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21420621.12948259</v>
+        <v>21420621.12948261</v>
       </c>
     </row>
     <row r="9">
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="S20" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T20" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>77.20538669489326</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="V21" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="F22" t="n">
-        <v>8.69762273147043</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C23" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="H24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="X24" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="W25" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
     </row>
     <row r="27">
@@ -2637,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>75.05593188338555</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>73.00117972968171</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C30" t="n">
-        <v>73.00117972968171</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
     </row>
     <row r="31">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="E31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>73.00117972968171</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="X33" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="Y33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>73.00117972968171</v>
+        <v>80.97802203781059</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U35" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="V35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.20538669489321</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
     </row>
     <row r="37">
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>8.697622731470398</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="E38" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U39" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="W39" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,16 +3661,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="E40" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="F40" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>8.697622731470402</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="V41" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="W41" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C42" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="V43" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="C20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="G20" t="n">
-        <v>90.34816049261062</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="H20" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I20" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J20" t="n">
-        <v>43.69836928579349</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K20" t="n">
-        <v>85.36695631422816</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L20" t="n">
-        <v>167.4186910240203</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="M20" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N20" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O20" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P20" t="n">
         <v>331.5221604436045</v>
@@ -5774,28 +5774,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R20" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S20" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="T20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="U20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="V20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="W20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="X20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="Y20" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="C21" t="n">
-        <v>86.10148679037673</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D21" t="n">
-        <v>86.10148679037673</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E21" t="n">
-        <v>86.10148679037673</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F21" t="n">
-        <v>86.10148679037673</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G21" t="n">
-        <v>86.10148679037673</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H21" t="n">
-        <v>86.10148679037673</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I21" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J21" t="n">
         <v>35.01446635656757</v>
       </c>
       <c r="K21" t="n">
-        <v>117.0662010663597</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="L21" t="n">
-        <v>199.1179357761518</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="M21" t="n">
-        <v>249.4704257338124</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="N21" t="n">
-        <v>249.4704257338124</v>
+        <v>85.36695631422812</v>
       </c>
       <c r="O21" t="n">
-        <v>249.4704257338124</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="P21" t="n">
         <v>249.4704257338124</v>
@@ -5862,19 +5862,19 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U21" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="V21" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W21" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="X21" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="Y21" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.41592071540788</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="C22" t="n">
-        <v>15.41592071540788</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="D22" t="n">
-        <v>15.41592071540788</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="E22" t="n">
-        <v>15.41592071540788</v>
+        <v>247.804443159866</v>
       </c>
       <c r="F22" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="G22" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="H22" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="I22" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J22" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K22" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571536</v>
       </c>
       <c r="L22" t="n">
-        <v>80.34385611233591</v>
+        <v>80.3438561123359</v>
       </c>
       <c r="M22" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N22" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O22" t="n">
         <v>302.9605787043558</v>
@@ -5929,31 +5929,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q22" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R22" t="n">
-        <v>182.8513552828849</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S22" t="n">
-        <v>99.1336379991464</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T22" t="n">
-        <v>99.1336379991464</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U22" t="n">
-        <v>99.1336379991464</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V22" t="n">
-        <v>99.1336379991464</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W22" t="n">
-        <v>15.41592071540788</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X22" t="n">
-        <v>15.41592071540788</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.41592071540788</v>
+        <v>331.5221604436045</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="C23" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="D23" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="E23" t="n">
-        <v>90.34816049261062</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="F23" t="n">
-        <v>90.34816049261062</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="G23" t="n">
-        <v>90.34816049261062</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="H23" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="I23" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J23" t="n">
-        <v>33.04294201842691</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K23" t="n">
-        <v>33.04294201842691</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L23" t="n">
-        <v>115.094676728219</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="M23" t="n">
-        <v>197.1464114380112</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N23" t="n">
-        <v>197.1464114380112</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O23" t="n">
-        <v>197.1464114380112</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P23" t="n">
-        <v>279.1981461478033</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q23" t="n">
         <v>331.5221604436045</v>
@@ -6014,22 +6014,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S23" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T23" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U23" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V23" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W23" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X23" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y23" t="n">
         <v>247.804443159866</v>
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C24" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="D24" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="E24" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="F24" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="G24" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H24" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I24" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J24" t="n">
-        <v>35.01446635656757</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K24" t="n">
-        <v>85.36695631422816</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="L24" t="n">
-        <v>85.36695631422816</v>
+        <v>88.68217791866421</v>
       </c>
       <c r="M24" t="n">
-        <v>167.4186910240203</v>
+        <v>170.7339126284563</v>
       </c>
       <c r="N24" t="n">
         <v>249.4704257338124</v>
       </c>
       <c r="O24" t="n">
-        <v>331.5221604436045</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P24" t="n">
         <v>331.5221604436045</v>
@@ -6102,16 +6102,16 @@
         <v>331.5221604436045</v>
       </c>
       <c r="V24" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W24" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X24" t="n">
-        <v>257.7835950600877</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.7835950600877</v>
+        <v>80.36900859238894</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="C25" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="D25" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="E25" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="F25" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="G25" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="H25" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="I25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J25" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K25" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571537</v>
       </c>
       <c r="L25" t="n">
-        <v>80.34385611233596</v>
+        <v>80.34385611233593</v>
       </c>
       <c r="M25" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O25" t="n">
         <v>302.9605787043558</v>
@@ -6175,22 +6175,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T25" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U25" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V25" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="W25" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X25" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.34816049261062</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="C26" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D26" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E26" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F26" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G26" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H26" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I26" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J26" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K26" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="L26" t="n">
-        <v>88.68217791866422</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="M26" t="n">
+        <v>33.04294201842688</v>
+      </c>
+      <c r="N26" t="n">
         <v>115.094676728219</v>
       </c>
-      <c r="N26" t="n">
-        <v>197.1464114380112</v>
-      </c>
       <c r="O26" t="n">
-        <v>279.1981461478033</v>
+        <v>197.1464114380111</v>
       </c>
       <c r="P26" t="n">
-        <v>279.1981461478033</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q26" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R26" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S26" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="T26" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="U26" t="n">
-        <v>164.0867258761275</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="V26" t="n">
-        <v>164.0867258761275</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="W26" t="n">
-        <v>164.0867258761275</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X26" t="n">
-        <v>80.36900859238898</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.36900859238898</v>
+        <v>90.3481604926106</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>164.0867258761275</v>
+        <v>166.162233102091</v>
       </c>
       <c r="C27" t="n">
-        <v>164.0867258761275</v>
+        <v>166.162233102091</v>
       </c>
       <c r="D27" t="n">
-        <v>164.0867258761275</v>
+        <v>82.44451581835246</v>
       </c>
       <c r="E27" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F27" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G27" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H27" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I27" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J27" t="n">
-        <v>35.01446635656757</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K27" t="n">
-        <v>117.0662010663597</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="L27" t="n">
-        <v>199.1179357761518</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="M27" t="n">
-        <v>281.1696704859439</v>
+        <v>85.36695631422812</v>
       </c>
       <c r="N27" t="n">
-        <v>331.5221604436045</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="O27" t="n">
-        <v>331.5221604436045</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P27" t="n">
         <v>331.5221604436045</v>
@@ -6327,28 +6327,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R27" t="n">
-        <v>331.5221604436045</v>
+        <v>249.8799503858295</v>
       </c>
       <c r="S27" t="n">
-        <v>331.5221604436045</v>
+        <v>166.162233102091</v>
       </c>
       <c r="T27" t="n">
-        <v>331.5221604436045</v>
+        <v>166.162233102091</v>
       </c>
       <c r="U27" t="n">
-        <v>247.804443159866</v>
+        <v>166.162233102091</v>
       </c>
       <c r="V27" t="n">
-        <v>164.0867258761275</v>
+        <v>166.162233102091</v>
       </c>
       <c r="W27" t="n">
-        <v>164.0867258761275</v>
+        <v>166.162233102091</v>
       </c>
       <c r="X27" t="n">
-        <v>164.0867258761275</v>
+        <v>166.162233102091</v>
       </c>
       <c r="Y27" t="n">
-        <v>164.0867258761275</v>
+        <v>166.162233102091</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.0867258761275</v>
+        <v>247.804443159866</v>
       </c>
       <c r="C28" t="n">
-        <v>90.34816049261062</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="D28" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="E28" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F28" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G28" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J28" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K28" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571536</v>
       </c>
       <c r="L28" t="n">
-        <v>80.34385611233593</v>
+        <v>80.3438561123359</v>
       </c>
       <c r="M28" t="n">
         <v>160.0418085032467</v>
@@ -6418,16 +6418,16 @@
         <v>331.5221604436045</v>
       </c>
       <c r="V28" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="W28" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="X28" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="Y28" t="n">
         <v>247.804443159866</v>
-      </c>
-      <c r="W28" t="n">
-        <v>247.804443159866</v>
-      </c>
-      <c r="X28" t="n">
-        <v>164.0867258761275</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>164.0867258761275</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="C29" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D29" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E29" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F29" t="n">
-        <v>174.0658777763491</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G29" t="n">
-        <v>174.0658777763491</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H29" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I29" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J29" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K29" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="L29" t="n">
-        <v>88.68217791866422</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="M29" t="n">
-        <v>170.7339126284564</v>
+        <v>88.68217791866421</v>
       </c>
       <c r="N29" t="n">
-        <v>197.1464114380112</v>
+        <v>170.7339126284563</v>
       </c>
       <c r="O29" t="n">
-        <v>197.1464114380112</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="P29" t="n">
-        <v>279.1981461478033</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q29" t="n">
         <v>331.5221604436045</v>
@@ -6488,25 +6488,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S29" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T29" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="U29" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="V29" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="W29" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X29" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="Y29" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>80.36900859238898</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J30" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K30" t="n">
-        <v>6.630443208872091</v>
+        <v>88.68217791866421</v>
       </c>
       <c r="L30" t="n">
-        <v>85.36695631422816</v>
+        <v>170.7339126284563</v>
       </c>
       <c r="M30" t="n">
-        <v>85.36695631422816</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="N30" t="n">
-        <v>167.4186910240203</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O30" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P30" t="n">
         <v>331.5221604436045</v>
@@ -6585,7 +6585,7 @@
         <v>247.804443159866</v>
       </c>
       <c r="Y30" t="n">
-        <v>164.0867258761275</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="C31" t="n">
-        <v>247.804443159866</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D31" t="n">
-        <v>247.804443159866</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E31" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F31" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G31" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H31" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I31" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J31" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K31" t="n">
         <v>14.60839277571539</v>
@@ -6631,7 +6631,7 @@
         <v>160.0418085032467</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O31" t="n">
         <v>302.9605787043558</v>
@@ -6643,28 +6643,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R31" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S31" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T31" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U31" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V31" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W31" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="X31" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="C32" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D32" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E32" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F32" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="G32" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="H32" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I32" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J32" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K32" t="n">
-        <v>88.68217791866422</v>
+        <v>85.36695631422812</v>
       </c>
       <c r="L32" t="n">
-        <v>170.7339126284564</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="M32" t="n">
-        <v>197.1464114380112</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N32" t="n">
-        <v>197.1464114380112</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O32" t="n">
-        <v>197.1464114380112</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P32" t="n">
-        <v>279.1981461478033</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q32" t="n">
         <v>331.5221604436045</v>
@@ -6734,16 +6734,16 @@
         <v>331.5221604436045</v>
       </c>
       <c r="V32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="W32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="X32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="Y32" t="n">
         <v>247.804443159866</v>
-      </c>
-      <c r="W32" t="n">
-        <v>247.804443159866</v>
-      </c>
-      <c r="X32" t="n">
-        <v>247.804443159866</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>164.0867258761275</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="C33" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D33" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E33" t="n">
-        <v>6.630443208872091</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F33" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G33" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H33" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I33" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J33" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K33" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="L33" t="n">
-        <v>88.68217791866422</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="M33" t="n">
-        <v>170.7339126284564</v>
+        <v>88.68217791866421</v>
       </c>
       <c r="N33" t="n">
-        <v>249.4704257338124</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="O33" t="n">
         <v>249.4704257338124</v>
@@ -6810,19 +6810,19 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U33" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V33" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W33" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X33" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.34816049261062</v>
+        <v>90.3481604926106</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.630443208872091</v>
+        <v>249.7261785872302</v>
       </c>
       <c r="C34" t="n">
-        <v>6.630443208872091</v>
+        <v>249.7261785872302</v>
       </c>
       <c r="D34" t="n">
-        <v>6.630443208872091</v>
+        <v>249.7261785872302</v>
       </c>
       <c r="E34" t="n">
-        <v>6.630443208872091</v>
+        <v>249.7261785872302</v>
       </c>
       <c r="F34" t="n">
-        <v>6.630443208872091</v>
+        <v>249.7261785872302</v>
       </c>
       <c r="G34" t="n">
-        <v>6.630443208872091</v>
+        <v>249.7261785872302</v>
       </c>
       <c r="H34" t="n">
-        <v>6.630443208872091</v>
+        <v>166.0084613034916</v>
       </c>
       <c r="I34" t="n">
-        <v>6.630443208872091</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="J34" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K34" t="n">
         <v>14.60839277571539</v>
@@ -6889,19 +6889,19 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U34" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V34" t="n">
-        <v>164.0867258761275</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W34" t="n">
-        <v>80.36900859238898</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X34" t="n">
-        <v>6.630443208872091</v>
+        <v>249.7261785872302</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.630443208872091</v>
+        <v>249.7261785872302</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="C35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J35" t="n">
-        <v>6.630443208872091</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K35" t="n">
-        <v>6.630443208872091</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L35" t="n">
-        <v>6.630443208872091</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="M35" t="n">
-        <v>33.04294201842691</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="N35" t="n">
-        <v>115.094676728219</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O35" t="n">
-        <v>197.1464114380112</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P35" t="n">
-        <v>279.1981461478033</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q35" t="n">
         <v>331.5221604436045</v>
@@ -6962,25 +6962,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S35" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T35" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="U35" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="V35" t="n">
-        <v>164.0867258761275</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="W35" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="X35" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="C36" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="D36" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="E36" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="F36" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="G36" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="H36" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="I36" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J36" t="n">
         <v>35.01446635656757</v>
       </c>
       <c r="K36" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L36" t="n">
-        <v>117.0662010663597</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="M36" t="n">
-        <v>167.4186910240203</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="N36" t="n">
-        <v>249.4704257338124</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="O36" t="n">
-        <v>331.5221604436045</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="P36" t="n">
-        <v>331.5221604436045</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="Q36" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R36" t="n">
-        <v>331.5221604436045</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="S36" t="n">
-        <v>331.5221604436045</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="T36" t="n">
-        <v>247.804443159866</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="U36" t="n">
-        <v>164.0867258761275</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="V36" t="n">
-        <v>164.0867258761275</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="W36" t="n">
-        <v>164.0867258761275</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="X36" t="n">
-        <v>90.34816049261062</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="Y36" t="n">
-        <v>6.630443208872091</v>
+        <v>169.8192040741152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="C37" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="D37" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="E37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J37" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K37" t="n">
         <v>14.60839277571539</v>
@@ -7105,7 +7105,7 @@
         <v>160.0418085032467</v>
       </c>
       <c r="N37" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O37" t="n">
         <v>302.9605787043558</v>
@@ -7114,31 +7114,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q37" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R37" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S37" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T37" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U37" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V37" t="n">
-        <v>174.0658777763491</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W37" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X37" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="C38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="D38" t="n">
-        <v>164.0867258761275</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E38" t="n">
-        <v>90.34816049261062</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F38" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G38" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H38" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I38" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J38" t="n">
-        <v>43.69836928579349</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K38" t="n">
-        <v>43.69836928579349</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L38" t="n">
-        <v>43.69836928579349</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="M38" t="n">
-        <v>125.7501039955856</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="N38" t="n">
-        <v>197.1464114380112</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="O38" t="n">
-        <v>197.1464114380112</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="P38" t="n">
-        <v>279.1981461478033</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q38" t="n">
         <v>331.5221604436045</v>
@@ -7199,25 +7199,25 @@
         <v>247.804443159866</v>
       </c>
       <c r="S38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="T38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="U38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="C39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J39" t="n">
-        <v>6.630443208872091</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K39" t="n">
-        <v>85.36695631422816</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="L39" t="n">
-        <v>167.4186910240203</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="M39" t="n">
-        <v>249.4704257338124</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="N39" t="n">
-        <v>331.5221604436045</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="O39" t="n">
-        <v>331.5221604436045</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="P39" t="n">
-        <v>331.5221604436045</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="Q39" t="n">
         <v>331.5221604436045</v>
@@ -7278,25 +7278,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S39" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="T39" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="U39" t="n">
-        <v>257.7835950600877</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V39" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="W39" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="X39" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>331.5221604436045</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="C40" t="n">
-        <v>247.804443159866</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="D40" t="n">
-        <v>164.0867258761275</v>
+        <v>99.13363799914636</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36900859238898</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="F40" t="n">
-        <v>6.630443208872091</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="G40" t="n">
-        <v>6.630443208872091</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="H40" t="n">
-        <v>6.630443208872091</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="I40" t="n">
-        <v>6.630443208872091</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="J40" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K40" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571536</v>
       </c>
       <c r="L40" t="n">
-        <v>80.34385611233593</v>
+        <v>80.3438561123359</v>
       </c>
       <c r="M40" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O40" t="n">
         <v>302.9605787043558</v>
@@ -7351,31 +7351,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q40" t="n">
-        <v>331.5221604436045</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="R40" t="n">
-        <v>331.5221604436045</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="S40" t="n">
-        <v>331.5221604436045</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="T40" t="n">
-        <v>331.5221604436045</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="U40" t="n">
-        <v>331.5221604436045</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="V40" t="n">
-        <v>331.5221604436045</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="W40" t="n">
-        <v>331.5221604436045</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="X40" t="n">
-        <v>331.5221604436045</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="Y40" t="n">
-        <v>331.5221604436045</v>
+        <v>182.8513552828849</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="C41" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D41" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E41" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F41" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G41" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H41" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I41" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J41" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K41" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="L41" t="n">
-        <v>88.68217791866422</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="M41" t="n">
-        <v>167.4186910240203</v>
+        <v>88.68217791866421</v>
       </c>
       <c r="N41" t="n">
-        <v>249.4704257338124</v>
+        <v>170.7339126284563</v>
       </c>
       <c r="O41" t="n">
-        <v>331.5221604436045</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="P41" t="n">
         <v>331.5221604436045</v>
@@ -7439,22 +7439,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T41" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U41" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="V41" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="W41" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="X41" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="Y41" t="n">
-        <v>164.0867258761275</v>
+        <v>6.63044320887209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="C42" t="n">
-        <v>80.36900859238898</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I42" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J42" t="n">
         <v>35.01446635656757</v>
@@ -7494,10 +7494,10 @@
         <v>117.0662010663597</v>
       </c>
       <c r="L42" t="n">
+        <v>117.0662010663597</v>
+      </c>
+      <c r="M42" t="n">
         <v>199.1179357761518</v>
-      </c>
-      <c r="M42" t="n">
-        <v>281.1696704859439</v>
       </c>
       <c r="N42" t="n">
         <v>281.1696704859439</v>
@@ -7506,7 +7506,7 @@
         <v>281.1696704859439</v>
       </c>
       <c r="P42" t="n">
-        <v>281.1696704859439</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q42" t="n">
         <v>331.5221604436045</v>
@@ -7527,13 +7527,13 @@
         <v>331.5221604436045</v>
       </c>
       <c r="W42" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="X42" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="Y42" t="n">
-        <v>164.0867258761275</v>
+        <v>257.7835950600876</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.0658777763491</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="C43" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D43" t="n">
-        <v>90.34816049261062</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E43" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F43" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G43" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H43" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I43" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="J43" t="n">
-        <v>6.630443208872091</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K43" t="n">
         <v>14.60839277571539</v>
       </c>
       <c r="L43" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233593</v>
       </c>
       <c r="M43" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0935432130389</v>
+        <v>242.0935432130388</v>
       </c>
       <c r="O43" t="n">
         <v>302.9605787043558</v>
@@ -7600,19 +7600,19 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U43" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V43" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="W43" t="n">
-        <v>257.7835950600877</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="X43" t="n">
-        <v>257.7835950600877</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="Y43" t="n">
-        <v>257.7835950600877</v>
+        <v>6.63044320887209</v>
       </c>
     </row>
     <row r="44">
@@ -9401,13 +9401,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>188.1540696014853</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L20" t="n">
         <v>226.8120702076072</v>
       </c>
       <c r="M20" t="n">
-        <v>128.1622291178006</v>
+        <v>170.2517109647043</v>
       </c>
       <c r="N20" t="n">
         <v>125.5756154705403</v>
@@ -9416,7 +9416,7 @@
         <v>214.927993750524</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q20" t="n">
         <v>159.4624509671762</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>170.4430906437703</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L21" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M21" t="n">
-        <v>114.1019229148604</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N21" t="n">
-        <v>50.36043154195551</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O21" t="n">
-        <v>68.51419372642016</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P21" t="n">
-        <v>74.51703052415492</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q21" t="n">
         <v>183.1166323325361</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>158.3335573262489</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L23" t="n">
         <v>226.8120702076072</v>
       </c>
       <c r="M23" t="n">
-        <v>211.0427692287017</v>
+        <v>170.2517109647043</v>
       </c>
       <c r="N23" t="n">
         <v>125.5756154705403</v>
@@ -9656,7 +9656,7 @@
         <v>230.4294825836339</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.42030488819118</v>
       </c>
       <c r="K24" t="n">
-        <v>138.4236515002031</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L24" t="n">
-        <v>70.94820947007287</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M24" t="n">
         <v>146.1213620584276</v>
       </c>
       <c r="N24" t="n">
-        <v>133.2409716528566</v>
+        <v>129.8922629615071</v>
       </c>
       <c r="O24" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P24" t="n">
-        <v>74.51703052415492</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q24" t="n">
         <v>100.2360922216349</v>
@@ -9799,7 +9799,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
         <v>178.5096609094456</v>
@@ -9878,7 +9878,7 @@
         <v>146.0645877545816</v>
       </c>
       <c r="L26" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M26" t="n">
         <v>154.8415208446236</v>
@@ -9890,7 +9890,7 @@
         <v>214.927993750524</v>
       </c>
       <c r="P26" t="n">
-        <v>147.5489424727328</v>
+        <v>230.4294825836339</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.42030488819118</v>
       </c>
       <c r="K27" t="n">
-        <v>170.4430906437703</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L27" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M27" t="n">
-        <v>146.1213620584276</v>
+        <v>142.772653367078</v>
       </c>
       <c r="N27" t="n">
-        <v>101.2215325092895</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O27" t="n">
-        <v>68.51419372642016</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P27" t="n">
-        <v>74.51703052415492</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q27" t="n">
         <v>100.2360922216349</v>
@@ -10115,22 +10115,22 @@
         <v>146.0645877545816</v>
       </c>
       <c r="L29" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M29" t="n">
         <v>211.0427692287017</v>
       </c>
       <c r="N29" t="n">
-        <v>152.2549071973633</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O29" t="n">
-        <v>132.0474536396229</v>
+        <v>214.927993750524</v>
       </c>
       <c r="P29" t="n">
-        <v>230.4294825836339</v>
+        <v>227.0807738922844</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,22 +10191,22 @@
         <v>97.42030488819118</v>
       </c>
       <c r="K30" t="n">
-        <v>87.56255053286915</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L30" t="n">
-        <v>150.4800408896244</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M30" t="n">
-        <v>63.24082194752643</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N30" t="n">
-        <v>133.2409716528566</v>
+        <v>129.8922629615071</v>
       </c>
       <c r="O30" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P30" t="n">
-        <v>157.3975706350561</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q30" t="n">
         <v>100.2360922216349</v>
@@ -10279,7 +10279,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>170.6199441891101</v>
+        <v>170.61994418911</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,25 +10349,25 @@
         <v>131.6542655994259</v>
       </c>
       <c r="K32" t="n">
-        <v>228.9451278654827</v>
+        <v>225.5964191741331</v>
       </c>
       <c r="L32" t="n">
         <v>226.8120702076072</v>
       </c>
       <c r="M32" t="n">
-        <v>154.8415208446236</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N32" t="n">
-        <v>125.5756154705403</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O32" t="n">
         <v>132.0474536396229</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10431,19 +10431,19 @@
         <v>87.56255053286915</v>
       </c>
       <c r="L33" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M33" t="n">
         <v>146.1213620584276</v>
       </c>
       <c r="N33" t="n">
-        <v>129.8922629615071</v>
+        <v>129.892262961507</v>
       </c>
       <c r="O33" t="n">
-        <v>68.51419372642016</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P33" t="n">
-        <v>157.3975706350561</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q33" t="n">
         <v>100.2360922216349</v>
@@ -10522,7 +10522,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140412</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L35" t="n">
-        <v>143.9315300967061</v>
+        <v>186.0210119436098</v>
       </c>
       <c r="M35" t="n">
-        <v>154.8415208446236</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N35" t="n">
         <v>208.4561555814414</v>
@@ -10601,10 +10601,10 @@
         <v>214.927993750524</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>87.56255053286915</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L36" t="n">
         <v>153.828749580974</v>
       </c>
       <c r="M36" t="n">
-        <v>114.1019229148604</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N36" t="n">
         <v>133.2409716528566</v>
       </c>
       <c r="O36" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P36" t="n">
         <v>74.51703052415492</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.2360922216349</v>
+        <v>151.0971931889688</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10750,7 +10750,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094457</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
         <v>170.61994418911</v>
@@ -10823,22 +10823,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L38" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M38" t="n">
-        <v>211.0427692287017</v>
+        <v>200.2797113828769</v>
       </c>
       <c r="N38" t="n">
-        <v>197.6930977356166</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O38" t="n">
         <v>132.0474536396229</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.42030488819118</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>167.0943819524207</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L39" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M39" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752643</v>
       </c>
       <c r="N39" t="n">
         <v>133.2409716528566</v>
       </c>
       <c r="O39" t="n">
-        <v>68.51419372642016</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P39" t="n">
-        <v>74.51703052415492</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.2360922216349</v>
+        <v>151.0971931889688</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10987,7 +10987,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094457</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
         <v>170.61994418911</v>
@@ -11063,10 +11063,10 @@
         <v>146.0645877545816</v>
       </c>
       <c r="L41" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M41" t="n">
-        <v>207.6940605373522</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N41" t="n">
         <v>208.4561555814414</v>
@@ -11075,7 +11075,7 @@
         <v>214.927993750524</v>
       </c>
       <c r="P41" t="n">
-        <v>147.5489424727328</v>
+        <v>227.0807738922844</v>
       </c>
       <c r="Q41" t="n">
         <v>159.4624509671762</v>
@@ -11142,22 +11142,22 @@
         <v>170.4430906437703</v>
       </c>
       <c r="L42" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M42" t="n">
         <v>146.1213620584276</v>
       </c>
       <c r="N42" t="n">
-        <v>50.36043154195551</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O42" t="n">
         <v>68.51419372642016</v>
       </c>
       <c r="P42" t="n">
-        <v>74.51703052415492</v>
+        <v>125.3781314914888</v>
       </c>
       <c r="Q42" t="n">
-        <v>151.0971931889689</v>
+        <v>100.2360922216349</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23981,7 +23981,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>341.719615324713</v>
+        <v>414.7207950543947</v>
       </c>
       <c r="H20" t="n">
         <v>250.634443778809</v>
@@ -24014,13 +24014,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>113.3136748416693</v>
+        <v>30.4331347307682</v>
       </c>
       <c r="S20" t="n">
         <v>112.8785156512237</v>
       </c>
       <c r="T20" t="n">
-        <v>137.6678563313394</v>
+        <v>147.5472167125588</v>
       </c>
       <c r="U20" t="n">
         <v>251.2990975109773</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>95.50311229342248</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24066,7 +24066,7 @@
         <v>109.2282977457949</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24102,16 +24102,16 @@
         <v>198.9097025254507</v>
       </c>
       <c r="U21" t="n">
-        <v>143.0403573209545</v>
+        <v>152.9197177021739</v>
       </c>
       <c r="V21" t="n">
-        <v>149.9200470385241</v>
+        <v>149.9200470385242</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925764</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>63.55342253566805</v>
       </c>
       <c r="F22" t="n">
-        <v>136.7234252914608</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7299400046554</v>
+        <v>84.84939989375424</v>
       </c>
       <c r="H22" t="n">
-        <v>159.9062953436239</v>
+        <v>77.02575523272274</v>
       </c>
       <c r="I22" t="n">
-        <v>147.6003096328796</v>
+        <v>74.59912990319793</v>
       </c>
       <c r="J22" t="n">
         <v>74.90369780277223</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R22" t="n">
-        <v>82.67557268525354</v>
+        <v>165.5561127961547</v>
       </c>
       <c r="S22" t="n">
-        <v>136.5868539147882</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T22" t="n">
         <v>226.8302394620306</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>299.8533015525795</v>
       </c>
       <c r="C23" t="n">
-        <v>292.2717120413258</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>299.0498299613606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24224,7 +24224,7 @@
         <v>250.634443778809</v>
       </c>
       <c r="I23" t="n">
-        <v>188.040552852714</v>
+        <v>115.0393731230323</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S23" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T23" t="n">
         <v>220.5483964422405</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.6526435389662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24297,10 +24297,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>54.15161038569735</v>
+        <v>64.03097076691682</v>
       </c>
       <c r="H24" t="n">
-        <v>26.34775763489372</v>
+        <v>109.2282977457949</v>
       </c>
       <c r="I24" t="n">
         <v>78.67633314568958</v>
@@ -24342,13 +24342,13 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385242</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X24" t="n">
-        <v>132.7718054737958</v>
+        <v>122.8924450925764</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7299400046554</v>
+        <v>94.72876027497369</v>
       </c>
       <c r="H25" t="n">
         <v>159.9062953436239</v>
       </c>
       <c r="I25" t="n">
-        <v>147.6003096328796</v>
+        <v>64.71976952197848</v>
       </c>
       <c r="J25" t="n">
         <v>74.90369780277223</v>
@@ -24415,22 +24415,22 @@
         <v>219.4673940256893</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U25" t="n">
         <v>286.3047908462834</v>
       </c>
       <c r="V25" t="n">
-        <v>179.1364635941463</v>
+        <v>169.2571032129269</v>
       </c>
       <c r="W25" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>309.7326619337989</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9955056308103</v>
       </c>
       <c r="G26" t="n">
         <v>414.7207950543947</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>113.3136748416693</v>
+        <v>30.4331347307682</v>
       </c>
       <c r="S26" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T26" t="n">
-        <v>137.6678563313394</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U26" t="n">
-        <v>168.4185574000761</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>313.2367589263719</v>
       </c>
     </row>
     <row r="27">
@@ -24525,22 +24525,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>64.56452545373763</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>82.58914857201539</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>54.15161038569735</v>
+        <v>137.0321504965985</v>
       </c>
       <c r="H27" t="n">
         <v>109.2282977457949</v>
       </c>
       <c r="I27" t="n">
-        <v>5.675153416007873</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494339</v>
       </c>
       <c r="T27" t="n">
         <v>198.9097025254507</v>
       </c>
       <c r="U27" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9208974318556</v>
       </c>
       <c r="V27" t="n">
-        <v>149.9200470385241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>94.24564136894612</v>
+        <v>84.36628098772671</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.73493290731123</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>73.4327829168875</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>167.7299400046554</v>
       </c>
       <c r="H28" t="n">
-        <v>77.02575523272273</v>
+        <v>159.9062953436239</v>
       </c>
       <c r="I28" t="n">
         <v>147.6003096328796</v>
@@ -24658,16 +24658,16 @@
         <v>286.3047908462834</v>
       </c>
       <c r="V28" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7326619337989</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,16 +24689,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9955056308103</v>
       </c>
       <c r="G29" t="n">
         <v>414.7207950543947</v>
       </c>
       <c r="H29" t="n">
-        <v>250.634443778809</v>
+        <v>333.5149838897102</v>
       </c>
       <c r="I29" t="n">
-        <v>105.1600127418128</v>
+        <v>188.040552852714</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,10 +24728,10 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S29" t="n">
-        <v>122.7578760324432</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5483964422405</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U29" t="n">
         <v>251.2990975109773</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.6526435389662</v>
+        <v>83.65264353896622</v>
       </c>
       <c r="C30" t="n">
-        <v>99.70731925863403</v>
+        <v>99.70731925863407</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>96.95144007103617</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>84.36628098772671</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.73493290731123</v>
       </c>
       <c r="E31" t="n">
-        <v>63.55342253566803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>167.7299400046554</v>
       </c>
       <c r="H31" t="n">
-        <v>77.02575523272273</v>
+        <v>159.9062953436239</v>
       </c>
       <c r="I31" t="n">
-        <v>74.59912990319789</v>
+        <v>147.6003096328796</v>
       </c>
       <c r="J31" t="n">
         <v>74.90369780277223</v>
@@ -24883,7 +24883,7 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R31" t="n">
-        <v>82.67557268525354</v>
+        <v>165.5561127961547</v>
       </c>
       <c r="S31" t="n">
         <v>219.4673940256893</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>213.5218186069093</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7326619337989</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>282.3923516601064</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,10 +24932,10 @@
         <v>414.7207950543947</v>
       </c>
       <c r="H32" t="n">
-        <v>260.5138041600284</v>
+        <v>250.634443778809</v>
       </c>
       <c r="I32" t="n">
-        <v>105.1600127418128</v>
+        <v>188.040552852714</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,7 +24974,7 @@
         <v>251.2990975109773</v>
       </c>
       <c r="V32" t="n">
-        <v>244.8717183592338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.6526435389662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,7 +25005,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>62.18867228248276</v>
       </c>
       <c r="G33" t="n">
         <v>137.0321504965985</v>
@@ -25050,19 +25050,19 @@
         <v>198.9097025254507</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9208974318556</v>
+        <v>143.0403573209545</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>178.6938034312379</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X33" t="n">
-        <v>122.8924450925763</v>
+        <v>132.7718054737958</v>
       </c>
       <c r="Y33" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,13 +25090,13 @@
         <v>167.7299400046554</v>
       </c>
       <c r="H34" t="n">
-        <v>159.9062953436239</v>
+        <v>77.02575523272274</v>
       </c>
       <c r="I34" t="n">
-        <v>147.6003096328796</v>
+        <v>64.71976952197848</v>
       </c>
       <c r="J34" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25129,16 +25129,16 @@
         <v>226.8302394620306</v>
       </c>
       <c r="U34" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V34" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>152.7084756593554</v>
+        <v>144.7316333512265</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25202,25 +25202,25 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S35" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5483964422405</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U35" t="n">
-        <v>168.4185574000761</v>
+        <v>168.4185574000762</v>
       </c>
       <c r="V35" t="n">
-        <v>244.8717183592338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>266.3604286065118</v>
+        <v>276.2397889877313</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.2367589263719</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>83.65264353896622</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25251,7 +25251,7 @@
         <v>109.2282977457949</v>
       </c>
       <c r="I36" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.82578795719726</v>
+        <v>3.620401262304057</v>
       </c>
       <c r="S36" t="n">
         <v>165.8996718358445</v>
       </c>
       <c r="T36" t="n">
-        <v>116.0291624145495</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U36" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9208974318556</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,7 +25296,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>132.7718054737958</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>122.8021556664032</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>84.36628098772671</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>65.73493290731123</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>73.4327829168875</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R37" t="n">
         <v>165.5561127961547</v>
@@ -25366,19 +25366,19 @@
         <v>226.8302394620306</v>
       </c>
       <c r="U37" t="n">
-        <v>277.607168114813</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V37" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25397,7 @@
         <v>271.8025015097818</v>
       </c>
       <c r="E38" t="n">
-        <v>308.9291903425801</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>323.9955056308103</v>
@@ -25436,10 +25436,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>30.43313473076819</v>
+        <v>30.4331347307682</v>
       </c>
       <c r="S38" t="n">
-        <v>195.7590557621249</v>
+        <v>122.7578760324432</v>
       </c>
       <c r="T38" t="n">
         <v>220.5483964422405</v>
@@ -25518,16 +25518,16 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8996718358445</v>
+        <v>92.89849210616283</v>
       </c>
       <c r="T39" t="n">
-        <v>198.9097025254507</v>
+        <v>116.0291624145496</v>
       </c>
       <c r="U39" t="n">
-        <v>152.9197177021739</v>
+        <v>225.9208974318556</v>
       </c>
       <c r="V39" t="n">
-        <v>149.9200470385241</v>
+        <v>149.9200470385242</v>
       </c>
       <c r="W39" t="n">
         <v>168.8144430500185</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,16 +25549,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>84.3662809877267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>65.73493290731122</v>
+        <v>65.73493290731123</v>
       </c>
       <c r="E40" t="n">
-        <v>63.55342253566803</v>
+        <v>63.55342253566805</v>
       </c>
       <c r="F40" t="n">
-        <v>72.41986829324954</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.7299400046554</v>
@@ -25570,7 +25570,7 @@
         <v>147.6003096328796</v>
       </c>
       <c r="J40" t="n">
-        <v>74.90369780277223</v>
+        <v>66.20607507130183</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.5561127961547</v>
+        <v>82.67557268525356</v>
       </c>
       <c r="S40" t="n">
         <v>219.4673940256893</v>
@@ -25640,10 +25640,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>341.719615324713</v>
+        <v>414.7207950543947</v>
       </c>
       <c r="H41" t="n">
-        <v>250.634443778809</v>
+        <v>333.5149838897102</v>
       </c>
       <c r="I41" t="n">
         <v>188.040552852714</v>
@@ -25679,16 +25679,16 @@
         <v>195.7590557621249</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5483964422405</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2990975109773</v>
+        <v>168.4185574000762</v>
       </c>
       <c r="V41" t="n">
         <v>244.8717183592338</v>
       </c>
       <c r="W41" t="n">
-        <v>266.3604286065118</v>
+        <v>276.2397889877313</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>83.65264353896622</v>
       </c>
       <c r="C42" t="n">
-        <v>89.8279588774146</v>
+        <v>89.82795887741462</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>64.56452545373763</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25725,7 +25725,7 @@
         <v>109.2282977457949</v>
       </c>
       <c r="I42" t="n">
-        <v>5.675153416007873</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>168.8144430500185</v>
+        <v>178.6938034312379</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.95144007103616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>84.3662809877267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>63.55342253566803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25840,16 +25840,16 @@
         <v>226.8302394620306</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3047908462834</v>
+        <v>203.4242507353823</v>
       </c>
       <c r="V43" t="n">
-        <v>179.1364635941463</v>
+        <v>169.2571032129269</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>203.6424582256899</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.7084756593555</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>394065.9293825423</v>
+        <v>394065.929382542</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>394065.929382542</v>
+        <v>394065.9293825419</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>394065.9293825421</v>
+        <v>394065.929382542</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>394065.9293825421</v>
+        <v>394065.929382542</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394065.9293825421</v>
+        <v>394065.929382542</v>
       </c>
     </row>
     <row r="16">
@@ -26332,7 +26332,7 @@
         <v>137090.5440924567</v>
       </c>
       <c r="I2" t="n">
-        <v>137090.5440924568</v>
+        <v>137090.5440924567</v>
       </c>
       <c r="J2" t="n">
         <v>137090.5440924567</v>
@@ -26350,7 +26350,7 @@
         <v>137090.5440924568</v>
       </c>
       <c r="O2" t="n">
-        <v>137090.5440924567</v>
+        <v>137090.5440924568</v>
       </c>
       <c r="P2" t="n">
         <v>113610.6196879027</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>37682.21760041432</v>
+        <v>38163.40506354706</v>
       </c>
       <c r="F4" t="n">
-        <v>37682.21760041431</v>
+        <v>38163.40506354706</v>
       </c>
       <c r="G4" t="n">
-        <v>37682.21760041432</v>
+        <v>38163.40506354706</v>
       </c>
       <c r="H4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="I4" t="n">
-        <v>50764.11856944543</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="J4" t="n">
-        <v>50764.11856944543</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="K4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="L4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733383</v>
       </c>
       <c r="M4" t="n">
-        <v>50764.11856944543</v>
+        <v>51411.43913733383</v>
       </c>
       <c r="N4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="O4" t="n">
-        <v>50764.11856944544</v>
+        <v>51411.43913733384</v>
       </c>
       <c r="P4" t="n">
-        <v>37682.21760041431</v>
+        <v>38163.40506354706</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>3155.728478979676</v>
       </c>
       <c r="H5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="I5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="J5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="K5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="L5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="M5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="N5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="O5" t="n">
-        <v>8194.865317722466</v>
+        <v>8194.865317722464</v>
       </c>
       <c r="P5" t="n">
         <v>3155.728478979676</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15496.2678680626</v>
+        <v>14750.73248915091</v>
       </c>
       <c r="C6" t="n">
-        <v>15496.26786806262</v>
+        <v>14750.73248915091</v>
       </c>
       <c r="D6" t="n">
-        <v>15496.26786806262</v>
+        <v>14750.73248915091</v>
       </c>
       <c r="E6" t="n">
-        <v>-43526.48818955137</v>
+        <v>-44007.67565268409</v>
       </c>
       <c r="F6" t="n">
-        <v>72772.67360850866</v>
+        <v>72291.48614537592</v>
       </c>
       <c r="G6" t="n">
-        <v>72772.67360850864</v>
+        <v>72291.48614537592</v>
       </c>
       <c r="H6" t="n">
-        <v>55769.64455850667</v>
+        <v>55122.32399061828</v>
       </c>
       <c r="I6" t="n">
-        <v>78131.56020528886</v>
+        <v>77484.23963740042</v>
       </c>
       <c r="J6" t="n">
-        <v>78131.56020528883</v>
+        <v>77484.23963740043</v>
       </c>
       <c r="K6" t="n">
-        <v>78131.56020528884</v>
+        <v>77484.23963740046</v>
       </c>
       <c r="L6" t="n">
-        <v>78131.56020528884</v>
+        <v>77484.23963740046</v>
       </c>
       <c r="M6" t="n">
-        <v>78131.56020528886</v>
+        <v>77484.23963740046</v>
       </c>
       <c r="N6" t="n">
-        <v>78131.56020528884</v>
+        <v>77484.23963740046</v>
       </c>
       <c r="O6" t="n">
-        <v>78131.56020528878</v>
+        <v>77484.23963740049</v>
       </c>
       <c r="P6" t="n">
-        <v>72772.67360850866</v>
+        <v>72291.48614537592</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="J4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="K4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O4" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>37.44234957264788</v>
       </c>
       <c r="K20" t="n">
+        <v>82.88054011090112</v>
+      </c>
+      <c r="L20" t="n">
+        <v>82.88054011090112</v>
+      </c>
+      <c r="M20" t="n">
         <v>42.08948184690371</v>
       </c>
-      <c r="L20" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P20" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>28.67073045221765</v>
       </c>
       <c r="K21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>50.86110096733389</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003302</v>
       </c>
       <c r="L22" t="n">
         <v>66.39945791577833</v>
@@ -36288,7 +36288,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N22" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O22" t="n">
         <v>61.48185403163331</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>26.67929172682305</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L23" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M23" t="n">
-        <v>82.88054011090114</v>
+        <v>42.08948184690371</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36373,10 +36373,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M24" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N24" t="n">
-        <v>82.88054011090114</v>
+        <v>79.53183141955155</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36519,13 +36519,13 @@
         <v>8.058534916003332</v>
       </c>
       <c r="L25" t="n">
-        <v>66.39945791577836</v>
+        <v>66.39945791577833</v>
       </c>
       <c r="M25" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N25" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O25" t="n">
         <v>61.48185403163331</v>
@@ -36598,19 +36598,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>26.67929172682305</v>
+        <v>26.67929172682302</v>
       </c>
       <c r="N26" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O26" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q26" t="n">
         <v>52.85253969272853</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>82.88054011090114</v>
+        <v>79.53183141955154</v>
       </c>
       <c r="N27" t="n">
-        <v>50.86110096733396</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003302</v>
       </c>
       <c r="L28" t="n">
         <v>66.39945791577833</v>
@@ -36762,7 +36762,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N28" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O28" t="n">
         <v>61.48185403163331</v>
@@ -36835,22 +36835,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N29" t="n">
-        <v>26.67929172682305</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P29" t="n">
-        <v>82.88054011090114</v>
+        <v>79.53183141955155</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L30" t="n">
-        <v>79.53183141955158</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N30" t="n">
-        <v>82.88054011090114</v>
+        <v>79.53183141955155</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N31" t="n">
-        <v>82.88054011090117</v>
+        <v>82.88054011090111</v>
       </c>
       <c r="O31" t="n">
         <v>61.48185403163331</v>
@@ -37069,25 +37069,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>82.88054011090114</v>
+        <v>79.53183141955154</v>
       </c>
       <c r="L32" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M32" t="n">
-        <v>26.67929172682305</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N33" t="n">
-        <v>79.53183141955158</v>
+        <v>79.53183141955154</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P33" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>66.39945791577833</v>
       </c>
       <c r="M34" t="n">
-        <v>80.50298221304118</v>
+        <v>80.50298221304115</v>
       </c>
       <c r="N34" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O34" t="n">
         <v>61.48185403163331</v>
       </c>
       <c r="P34" t="n">
-        <v>28.85008256489774</v>
+        <v>28.85008256489769</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>42.08948184690368</v>
       </c>
       <c r="M35" t="n">
-        <v>26.67929172682305</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O35" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>28.67073045221765</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L36" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M36" t="n">
-        <v>50.86110096733393</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.8611009673339</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>66.39945791577833</v>
       </c>
       <c r="M37" t="n">
-        <v>80.50298221304121</v>
+        <v>80.50298221304118</v>
       </c>
       <c r="N37" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090111</v>
       </c>
       <c r="O37" t="n">
         <v>61.48185403163331</v>
@@ -37543,22 +37543,22 @@
         <v>37.44234957264788</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M38" t="n">
-        <v>82.88054011090114</v>
+        <v>72.11748226507632</v>
       </c>
       <c r="N38" t="n">
-        <v>72.11748226507632</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>52.85253969272853</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>28.67073045221765</v>
       </c>
       <c r="K39" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.8611009673339</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003302</v>
       </c>
       <c r="L40" t="n">
         <v>66.39945791577833</v>
       </c>
       <c r="M40" t="n">
-        <v>80.50298221304121</v>
+        <v>80.50298221304118</v>
       </c>
       <c r="N40" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O40" t="n">
         <v>61.48185403163331</v>
@@ -37783,19 +37783,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>79.53183141955158</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N41" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O41" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>79.53183141955155</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>28.67073045221765</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>50.8611009673339</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.86110096733396</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N43" t="n">
-        <v>82.88054011090114</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O43" t="n">
         <v>61.48185403163331</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366512.7084587871</v>
+        <v>380179.603652189</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.142433866</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21420621.12948261</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4139743.9209927</v>
+        <v>3730294.781355888</v>
       </c>
     </row>
     <row r="11">
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2214,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2454,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>75.05593188338555</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2713,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3202,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>80.97802203781059</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.20538669489321</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3630,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3664,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3682,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>8.697622731470402</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>207.8018387053777</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>85.36695631422812</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>14.60839277571536</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>80.3438561123359</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>207.8018387053777</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>170.7339126284563</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>14.60839277571537</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>33.04294201842688</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>115.094676728219</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>197.1464114380111</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>82.44451581835246</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>85.36695631422812</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>249.8799503858295</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>166.162233102091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>14.60839277571536</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>80.3438561123359</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>170.7339126284563</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>252.7856473382485</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>170.7339126284563</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>252.7856473382485</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>85.36695631422812</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>249.7261785872302</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>249.7261785872302</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>249.7261785872302</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>249.7261785872302</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>249.7261785872302</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>249.7261785872302</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>166.0084613034916</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>249.7261785872302</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>249.7261785872302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>86.10148679037673</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>199.1179357761518</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>199.1179357761518</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>253.5369213578538</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>253.5369213578538</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>253.5369213578538</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>253.5369213578538</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>253.5369213578538</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>253.5369213578538</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>253.5369213578538</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>169.8192040741152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>207.8018387053777</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>199.1179357761518</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>99.13363799914636</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>14.60839277571536</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>80.3438561123359</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>170.7339126284563</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>252.7856473382485</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>199.1179357761518</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>170.2517109647043</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>101.2215325092894</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>157.397570635056</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>170.2517109647043</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4294825836339</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>129.8922629615071</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>157.397570635056</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>154.8415208446236</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>230.4294825836339</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>142.772653367078</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>157.397570635056</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>227.0807738922844</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>170.4430906437703</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>129.8922629615071</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>225.5964191741331</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>129.892262961507</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>157.397570635056</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>186.0210119436098</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>170.4430906437703</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>151.0971931889688</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>200.2797113828769</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>157.397570635056</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>151.0971931889688</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0807738922844</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>170.4430906437703</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>125.3781314914888</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>30.4331347307682</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>112.8785156512237</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>147.5472167125588</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>152.9197177021739</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>122.8924450925764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24133,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>63.55342253566805</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>84.84939989375424</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>77.02575523272274</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>74.59912990319793</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>299.8533015525795</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>115.0393731230323</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>112.8785156512237</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>64.03097076691682</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>122.8924450925764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>94.72876027497369</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>64.71976952197848</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>143.9496993511295</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>30.4331347307682</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>112.8785156512237</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>313.2367589263719</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,22 +24527,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>64.56452545373763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>82.58914857201539</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>83.01913172494339</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24601,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>84.36628098772671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>65.73493290731123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>73.4327829168875</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>309.7326619337989</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>112.8785156512237</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>137.6678563313394</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.65264353896622</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>99.70731925863407</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.95144007103617</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>84.36628098772671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>65.73493290731123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>213.5218186069093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>309.7326619337989</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>282.3923516601064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25005,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>62.18867228248276</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>132.7718054737958</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>77.02575523272274</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>64.71976952197848</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>144.7316333512265</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>112.8785156512237</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>137.6678563313394</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>168.4185574000762</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>276.2397889877313</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>83.65264353896622</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.620401262304057</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>84.36628098772671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>65.73493290731123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>73.4327829168875</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,22 +25396,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>271.8025015097818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>30.4331347307682</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>122.7578760324432</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>92.89849210616283</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>116.0291624145496</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25552,25 +25554,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>65.73493290731123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>63.55342253566805</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>66.20607507130183</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>82.67557268525356</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>137.6678563313394</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4185574000762</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
-        <v>244.8717183592338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>276.2397889877313</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.65264353896622</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>89.82795887741462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>64.56452545373763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>178.6938034312379</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>152.7084756593555</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>322189.9542833036</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>322189.9542833036</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>322189.9542833036</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>394065.929382542</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>394065.9293825419</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>394065.929382542</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>394065.9293825421</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>394065.9293825421</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>394065.929382542</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>394065.929382542</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394065.929382542</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>322189.9542833036</v>
+        <v>320841.5623766389</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>107507.4055314464</v>
       </c>
       <c r="E2" t="n">
-        <v>113610.6196879027</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="F2" t="n">
-        <v>113610.6196879027</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="G2" t="n">
-        <v>113610.6196879027</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="H2" t="n">
-        <v>137090.5440924567</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="I2" t="n">
-        <v>137090.5440924567</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="J2" t="n">
-        <v>137090.5440924567</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="K2" t="n">
-        <v>137090.5440924568</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="L2" t="n">
-        <v>137090.5440924568</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="M2" t="n">
-        <v>137090.5440924568</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="N2" t="n">
-        <v>137090.5440924568</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="O2" t="n">
-        <v>137090.5440924568</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="P2" t="n">
-        <v>113610.6196879027</v>
+        <v>114320.5481498636</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116299.16179806</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>22361.91564678215</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>38163.40506354706</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="F4" t="n">
-        <v>38163.40506354706</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="G4" t="n">
-        <v>38163.40506354706</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="H4" t="n">
-        <v>51411.43913733384</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="I4" t="n">
-        <v>51411.43913733384</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="J4" t="n">
-        <v>51411.43913733384</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="K4" t="n">
-        <v>51411.43913733384</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="L4" t="n">
-        <v>51411.43913733383</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="M4" t="n">
-        <v>51411.43913733383</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="N4" t="n">
-        <v>51411.43913733384</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="O4" t="n">
-        <v>51411.43913733384</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="P4" t="n">
-        <v>38163.40506354706</v>
+        <v>35040.19200197986</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14750.73248915091</v>
+        <v>14750.73248915089</v>
       </c>
       <c r="C6" t="n">
-        <v>14750.73248915091</v>
+        <v>14750.73248915089</v>
       </c>
       <c r="D6" t="n">
-        <v>14750.73248915091</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="E6" t="n">
-        <v>-44007.67565268409</v>
+        <v>-57431.2559571246</v>
       </c>
       <c r="F6" t="n">
-        <v>72291.48614537592</v>
+        <v>75668.74404287546</v>
       </c>
       <c r="G6" t="n">
-        <v>72291.48614537592</v>
+        <v>75668.74404287546</v>
       </c>
       <c r="H6" t="n">
-        <v>55122.32399061828</v>
+        <v>75668.74404287546</v>
       </c>
       <c r="I6" t="n">
-        <v>77484.23963740042</v>
+        <v>75668.74404287546</v>
       </c>
       <c r="J6" t="n">
-        <v>77484.23963740043</v>
+        <v>75668.74404287546</v>
       </c>
       <c r="K6" t="n">
-        <v>77484.23963740046</v>
+        <v>75668.74404287546</v>
       </c>
       <c r="L6" t="n">
-        <v>77484.23963740046</v>
+        <v>75668.74404287546</v>
       </c>
       <c r="M6" t="n">
-        <v>77484.23963740046</v>
+        <v>75668.74404287546</v>
       </c>
       <c r="N6" t="n">
-        <v>77484.23963740046</v>
+        <v>75668.74404287546</v>
       </c>
       <c r="O6" t="n">
-        <v>77484.23963740049</v>
+        <v>75668.74404287546</v>
       </c>
       <c r="P6" t="n">
-        <v>72291.48614537592</v>
+        <v>75668.74404287546</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26805,28 +26807,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36118,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>42.08948184690371</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>50.86110096733389</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.058534916003302</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>42.08948184690371</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>79.53183141955155</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,19 +36603,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>26.67929172682302</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.058534916003302</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36838,16 +36840,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>79.53183141955155</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>79.53183141955155</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36990,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>82.88054011090111</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>80.50298221304115</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>42.08948184690368</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.8611009673339</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>82.88054011090111</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>72.11748226507632</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.8611009673339</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.058534916003302</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>79.53183141955155</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>50.8611009673339</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380179.603652189</v>
+        <v>255505.9064818039</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>6765418.657980112</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22317222.39794713</v>
+        <v>21407185.82625513</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3730294.781355888</v>
+        <v>4127155.970290799</v>
       </c>
     </row>
     <row r="11">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>76.87928562742992</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
     <row r="27">
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>76.87928562742992</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>9.727356832651365</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>76.87928562742992</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>82.05901400520688</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>76.87928562742992</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>9.727356832651365</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>101.076717473572</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>101.076717473572</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>33.04178146831131</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>284.0959365097168</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>15.08695199673545</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>81.35001001408395</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>284.0959365097168</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>170.5734519674083</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>170.5734519674083</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>170.5734519674083</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>284.0959365097168</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>166.3558290449623</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>150.346530604425</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>166.3558290449623</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>118.7489056237013</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>153.370242486095</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>100.5004044969134</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>157.3122239786873</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>129.5750881471879</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>200.8055894074456</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>118.7489056237013</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094457</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>166.3558290449623</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>129.5750881471879</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>166.3558290449623</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>167.1988066830955</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>184.8765606401013</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>100.5004044969134</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H11" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I11" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S11" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T11" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H12" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I12" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S12" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T12" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H13" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I13" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J13" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R13" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S13" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T13" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H14" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I14" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S14" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T14" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H15" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I15" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S15" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T15" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H16" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I16" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J16" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R16" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S16" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T16" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H17" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I17" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S17" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T17" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H18" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I18" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S18" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T18" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H19" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I19" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J19" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R19" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S19" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T19" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H20" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I20" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S20" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T20" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H21" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I21" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S21" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T21" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H22" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I22" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J22" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R22" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S22" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T22" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0249893041543</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>281.5640394116813</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G23" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H23" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I23" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S23" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T23" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>312.507181497959</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>82.82433129054108</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>70.56577993720883</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.9871697683942</v>
+        <v>53.31902250804625</v>
       </c>
       <c r="H24" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I24" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T24" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H25" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I25" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J25" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R25" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S25" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T25" t="n">
-        <v>226.6691135000563</v>
+        <v>153.0841665253885</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H26" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I26" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S26" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T26" t="n">
-        <v>220.1803856409053</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2923720137513</v>
+        <v>177.5677010628212</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5290862967273</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H27" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I27" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.0641745378389</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T27" t="n">
-        <v>198.728398625364</v>
+        <v>122.0131831117985</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>170.1046233492859</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H28" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I28" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J28" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T28" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>134.8758009927685</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>291.542134612913</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>270.9741892613567</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H29" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I29" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S29" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T29" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H30" t="n">
-        <v>108.7938786076111</v>
+        <v>25.47815180947028</v>
       </c>
       <c r="I30" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S30" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T30" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9179381734211</v>
+        <v>152.1898589823646</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>96.12312782261104</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H31" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I31" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J31" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R31" t="n">
-        <v>163.8605191622716</v>
+        <v>91.66418150891985</v>
       </c>
       <c r="S31" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T31" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H32" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I32" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S32" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T32" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>275.5102115593185</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>286.0222483191428</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H33" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I33" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.0641745378389</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T33" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9179381734211</v>
+        <v>149.0413305130292</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H34" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I34" t="n">
-        <v>146.4662571175369</v>
+        <v>73.76175546322096</v>
       </c>
       <c r="J34" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R34" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S34" t="n">
-        <v>218.8102057935515</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T34" t="n">
-        <v>226.6691135000563</v>
+        <v>143.1060713241569</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0008030297109</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>281.5640394116813</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H35" t="n">
-        <v>332.654015158888</v>
+        <v>249.7242924136083</v>
       </c>
       <c r="I35" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.0327934026353</v>
+        <v>39.08094512952584</v>
       </c>
       <c r="S35" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T35" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H36" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I36" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S36" t="n">
-        <v>165.0641745378389</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T36" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>159.0698299913307</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>72.70320548847462</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>61.71219566360499</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H37" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I37" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J37" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R37" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S37" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T37" t="n">
-        <v>226.6691135000563</v>
+        <v>143.1060713241569</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0249893041543</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H38" t="n">
-        <v>332.654015158888</v>
+        <v>259.70238761484</v>
       </c>
       <c r="I38" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T38" t="n">
-        <v>220.1803856409053</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H39" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I39" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T39" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9179381734211</v>
+        <v>143.8616021352523</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25535,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H40" t="n">
-        <v>159.571016214239</v>
+        <v>76.16557313021367</v>
       </c>
       <c r="I40" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J40" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R40" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T40" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>151.9788982309426</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H41" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I41" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T41" t="n">
-        <v>220.1803856409053</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2923720137513</v>
+        <v>177.5677010628212</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H42" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I42" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S42" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T42" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>159.0698299913307</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>121.9738434179781</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>106.1012230238427</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>61.71219566360499</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H43" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I43" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J43" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R43" t="n">
-        <v>163.8605191622716</v>
+        <v>81.68608630768817</v>
       </c>
       <c r="S43" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T43" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>281.5640394116813</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>270.9741892613567</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H44" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I44" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T44" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2923720137513</v>
+        <v>177.5677010628212</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.9871697683942</v>
+        <v>53.31902250804625</v>
       </c>
       <c r="H45" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.0641745378389</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T45" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9179381734211</v>
+        <v>149.0413305130292</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26031,22 +26031,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>136.7066058139178</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>61.71219566360499</v>
       </c>
       <c r="G46" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H46" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I46" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T46" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>320841.5623766389</v>
+        <v>322061.7833071018</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>320841.5623766389</v>
+        <v>322061.7833071018</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>320841.5623766389</v>
+        <v>322061.7833071018</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>320841.5623766389</v>
+        <v>322061.7833071018</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>320841.5623766389</v>
+        <v>394656.0904835992</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>320841.5623766389</v>
+        <v>394656.0904835992</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>320841.5623766389</v>
+        <v>394656.0904835993</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>320841.5623766389</v>
+        <v>394656.0904835991</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>320841.5623766389</v>
+        <v>394656.0904835992</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>320841.5623766389</v>
+        <v>394656.0904835993</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>320841.5623766389</v>
+        <v>394656.0904835992</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>320841.5623766389</v>
+        <v>394656.0904835993</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>107507.4055314464</v>
       </c>
       <c r="E2" t="n">
-        <v>114320.5481498636</v>
+        <v>113678.1017185743</v>
       </c>
       <c r="F2" t="n">
-        <v>114320.5481498636</v>
+        <v>113678.1017185743</v>
       </c>
       <c r="G2" t="n">
-        <v>114320.5481498636</v>
+        <v>113678.1017185743</v>
       </c>
       <c r="H2" t="n">
-        <v>114320.5481498636</v>
+        <v>113678.1017185743</v>
       </c>
       <c r="I2" t="n">
-        <v>114320.5481498636</v>
+        <v>137392.6856578077</v>
       </c>
       <c r="J2" t="n">
-        <v>114320.5481498636</v>
+        <v>137392.6856578077</v>
       </c>
       <c r="K2" t="n">
-        <v>114320.5481498636</v>
+        <v>137392.6856578077</v>
       </c>
       <c r="L2" t="n">
-        <v>114320.5481498636</v>
+        <v>137392.6856578077</v>
       </c>
       <c r="M2" t="n">
-        <v>114320.5481498636</v>
+        <v>137392.6856578077</v>
       </c>
       <c r="N2" t="n">
-        <v>114320.5481498636</v>
+        <v>137392.6856578077</v>
       </c>
       <c r="O2" t="n">
-        <v>114320.5481498636</v>
+        <v>137392.6856578077</v>
       </c>
       <c r="P2" t="n">
-        <v>114320.5481498636</v>
+        <v>137392.6856578077</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>117896.1602839667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22259.9417282444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>35040.19200197986</v>
+        <v>37866.52901066591</v>
       </c>
       <c r="F4" t="n">
-        <v>35040.19200197986</v>
+        <v>37866.52901066591</v>
       </c>
       <c r="G4" t="n">
-        <v>35040.19200197986</v>
+        <v>37866.52901066591</v>
       </c>
       <c r="H4" t="n">
-        <v>35040.19200197986</v>
+        <v>37866.52901066591</v>
       </c>
       <c r="I4" t="n">
-        <v>35040.19200197986</v>
+        <v>51246.96459723468</v>
       </c>
       <c r="J4" t="n">
-        <v>35040.19200197986</v>
+        <v>51246.96459723468</v>
       </c>
       <c r="K4" t="n">
-        <v>35040.19200197986</v>
+        <v>51246.96459723468</v>
       </c>
       <c r="L4" t="n">
-        <v>35040.19200197986</v>
+        <v>51246.96459723468</v>
       </c>
       <c r="M4" t="n">
-        <v>35040.19200197986</v>
+        <v>51246.96459723468</v>
       </c>
       <c r="N4" t="n">
-        <v>35040.19200197986</v>
+        <v>51246.96459723468</v>
       </c>
       <c r="O4" t="n">
-        <v>35040.19200197986</v>
+        <v>51246.96459723468</v>
       </c>
       <c r="P4" t="n">
-        <v>35040.19200197986</v>
+        <v>51246.96459723468</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="F5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="G5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="H5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="I5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="J5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="K5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="L5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="M5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="N5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="O5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="P5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14750.73248915089</v>
+        <v>-399.9414808838592</v>
       </c>
       <c r="C6" t="n">
-        <v>14750.73248915089</v>
+        <v>-399.9414808838592</v>
       </c>
       <c r="D6" t="n">
-        <v>14750.73248915088</v>
+        <v>-399.9414808838592</v>
       </c>
       <c r="E6" t="n">
-        <v>-57431.2559571246</v>
+        <v>-60125.78909297687</v>
       </c>
       <c r="F6" t="n">
-        <v>75668.74404287546</v>
+        <v>57770.37119098983</v>
       </c>
       <c r="G6" t="n">
-        <v>75668.74404287546</v>
+        <v>57770.37119098983</v>
       </c>
       <c r="H6" t="n">
-        <v>75668.74404287546</v>
+        <v>57770.37119098982</v>
       </c>
       <c r="I6" t="n">
-        <v>75668.74404287546</v>
+        <v>41940.80878892468</v>
       </c>
       <c r="J6" t="n">
-        <v>75668.74404287546</v>
+        <v>64200.75051716904</v>
       </c>
       <c r="K6" t="n">
-        <v>75668.74404287546</v>
+        <v>64200.75051716901</v>
       </c>
       <c r="L6" t="n">
-        <v>75668.74404287546</v>
+        <v>64200.75051716904</v>
       </c>
       <c r="M6" t="n">
-        <v>75668.74404287546</v>
+        <v>64200.75051716901</v>
       </c>
       <c r="N6" t="n">
-        <v>75668.74404287546</v>
+        <v>64200.75051716906</v>
       </c>
       <c r="O6" t="n">
-        <v>75668.74404287546</v>
+        <v>64200.75051716907</v>
       </c>
       <c r="P6" t="n">
-        <v>75668.74404287546</v>
+        <v>64200.75051716907</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="F3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="H3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="I3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="J3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="K3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="L3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="M3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="N3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="O3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="P3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H11" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I11" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J11" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K11" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L11" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M11" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N11" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O11" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P11" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R11" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S11" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T11" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H12" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I12" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J12" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K12" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L12" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M12" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N12" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O12" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P12" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R12" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S12" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T12" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H13" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I13" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J13" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K13" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L13" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M13" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N13" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O13" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P13" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R13" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S13" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H14" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I14" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K14" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L14" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M14" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N14" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O14" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P14" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R14" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S14" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T14" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H15" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I15" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J15" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K15" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L15" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M15" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N15" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O15" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P15" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R15" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S15" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T15" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H16" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I16" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J16" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K16" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L16" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M16" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N16" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O16" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P16" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R16" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S16" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T16" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H17" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I17" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J17" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K17" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L17" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M17" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N17" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O17" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P17" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R17" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S17" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T17" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H18" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I18" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J18" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K18" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L18" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M18" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N18" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O18" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P18" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R18" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S18" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T18" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H19" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I19" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J19" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K19" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L19" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M19" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N19" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O19" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P19" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R19" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S19" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T19" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H20" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I20" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J20" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K20" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L20" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M20" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N20" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O20" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P20" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R20" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S20" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T20" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H21" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I21" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J21" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K21" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L21" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M21" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N21" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O21" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P21" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R21" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S21" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T21" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H22" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I22" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J22" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K22" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L22" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M22" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N22" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O22" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P22" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R22" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S22" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T22" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H23" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I23" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J23" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K23" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L23" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M23" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N23" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O23" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P23" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R23" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S23" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T23" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H24" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I24" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J24" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K24" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L24" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M24" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N24" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O24" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P24" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R24" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S24" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T24" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H25" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I25" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J25" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K25" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L25" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M25" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N25" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O25" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P25" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R25" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S25" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T25" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H26" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I26" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J26" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K26" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L26" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M26" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N26" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O26" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P26" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R26" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S26" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T26" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H27" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I27" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J27" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K27" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L27" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M27" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N27" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O27" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P27" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R27" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S27" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T27" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H28" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I28" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J28" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K28" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L28" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M28" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N28" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O28" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P28" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R28" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S28" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T28" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H29" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I29" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J29" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K29" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L29" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M29" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N29" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O29" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P29" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q29" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R29" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S29" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T29" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H30" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I30" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J30" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K30" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L30" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M30" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N30" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O30" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P30" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R30" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S30" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T30" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H31" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I31" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J31" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K31" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L31" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M31" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N31" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O31" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P31" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R31" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S31" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T31" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H32" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I32" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J32" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K32" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M32" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N32" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O32" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P32" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R32" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S32" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T32" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H33" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I33" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J33" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K33" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L33" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M33" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N33" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O33" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P33" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R33" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S33" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T33" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H34" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I34" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J34" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K34" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L34" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M34" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N34" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O34" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P34" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R34" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S34" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T34" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H35" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I35" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J35" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K35" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L35" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M35" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N35" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O35" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P35" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R35" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S35" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T35" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H36" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I36" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J36" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K36" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L36" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M36" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N36" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O36" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P36" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R36" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S36" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T36" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H37" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I37" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J37" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K37" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L37" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M37" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N37" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O37" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P37" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R37" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S37" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T37" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H38" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I38" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J38" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K38" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L38" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M38" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N38" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O38" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P38" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q38" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R38" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S38" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T38" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H39" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I39" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J39" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K39" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L39" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M39" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N39" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O39" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P39" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R39" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S39" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T39" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H40" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I40" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J40" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K40" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L40" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M40" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N40" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O40" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P40" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R40" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S40" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T40" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H41" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I41" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J41" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K41" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L41" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M41" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N41" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O41" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P41" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R41" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S41" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T41" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H42" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I42" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J42" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K42" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L42" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M42" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N42" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O42" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P42" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R42" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S42" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T42" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I43" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J43" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K43" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L43" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M43" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N43" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O43" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P43" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R43" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S43" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T43" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H44" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I44" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J44" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K44" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L44" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M44" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N44" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O44" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P44" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R44" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S44" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T44" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H45" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I45" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J45" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K45" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L45" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M45" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N45" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O45" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P45" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R45" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S45" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T45" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H46" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I46" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J46" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K46" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L46" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M46" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N46" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O46" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P46" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R46" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S46" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T46" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36369,13 +36369,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>42.20609012309107</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>83.70885235932629</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>42.20609012309109</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>51.25199285614971</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36840,19 +36840,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>26.61118513087395</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>26.61118513087395</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>83.70885235932629</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>42.20609012309109</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>81.06487576515718</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>42.20609012309107</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>42.20609012309109</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>61.98851302068972</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>42.20609012309107</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>66.93238183570557</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
